--- a/design/数值文档/战斗数值/属性类型和计算公式_彭雪锋.xlsx
+++ b/design/数值文档/战斗数值/属性类型和计算公式_彭雪锋.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="131">
   <si>
     <t>属性名称</t>
   </si>
@@ -54,42 +54,15 @@
     <t>值</t>
   </si>
   <si>
-    <t>物理攻击</t>
-  </si>
-  <si>
     <t>物理类技能的伤害基础值</t>
   </si>
   <si>
-    <t>法术攻击</t>
-  </si>
-  <si>
-    <t>法术类技能的伤害基础值</t>
-  </si>
-  <si>
-    <t>物理防御</t>
-  </si>
-  <si>
     <t>对物理类技能的伤害减免</t>
   </si>
   <si>
-    <t>法术防御</t>
-  </si>
-  <si>
-    <t>对法术类技能的伤害减免</t>
-  </si>
-  <si>
-    <t>物理破防</t>
-  </si>
-  <si>
     <t>攻击无视对手物理防御的固定值</t>
   </si>
   <si>
-    <t>法术破防</t>
-  </si>
-  <si>
-    <t>攻击无视对手法术防御的固定值</t>
-  </si>
-  <si>
     <t>生命增幅</t>
   </si>
   <si>
@@ -108,36 +81,12 @@
     <t>百分比提升攻击强度</t>
   </si>
   <si>
-    <t>法术增幅</t>
-  </si>
-  <si>
-    <t>百分比提升法术强度</t>
-  </si>
-  <si>
-    <t>物防增幅</t>
-  </si>
-  <si>
     <t>百分比提升物防</t>
   </si>
   <si>
-    <t>法防增幅</t>
-  </si>
-  <si>
-    <t>百分比提升法防</t>
-  </si>
-  <si>
-    <t>物理穿透</t>
-  </si>
-  <si>
     <t>攻击无视对手物理防御的百分比</t>
   </si>
   <si>
-    <t>法术穿透</t>
-  </si>
-  <si>
-    <t>攻击无视对手法术防御的百分比</t>
-  </si>
-  <si>
     <t>命中</t>
   </si>
   <si>
@@ -168,37 +117,13 @@
     <t>击中回复</t>
   </si>
   <si>
-    <t>攻击和施放技能后回复固定量的生命值</t>
-  </si>
-  <si>
-    <t>吸血</t>
-  </si>
-  <si>
-    <t>造成伤害后回复一定比例的生命值</t>
-  </si>
-  <si>
     <t>攻击减幅</t>
   </si>
   <si>
     <t>降低敌方的攻击增幅属性</t>
   </si>
   <si>
-    <t>物防减幅</t>
-  </si>
-  <si>
     <t>降低敌方的物防增幅属性</t>
-  </si>
-  <si>
-    <t>法防减幅</t>
-  </si>
-  <si>
-    <t>降低敌方的法防增幅属性</t>
-  </si>
-  <si>
-    <t>战斗力</t>
-  </si>
-  <si>
-    <t>显示玩家的具体战力</t>
   </si>
   <si>
     <r>
@@ -2128,12 +2053,206 @@
     <t>减益类属性</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <t>攻击力</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>破防</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御增幅</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御穿透</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御减幅</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊属性</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>普攻命中敌人后回复一定的生命值</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>抗鬼</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>抗僵尸</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>抗虫</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低受到的火焰伤害</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低受到的毒性伤害</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>遭遇鬼怪类敌人的攻击时，降低受到的伤害</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>遭遇僵尸类敌人的攻击时，降低受到的伤害</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>遭遇虫类敌人的攻击时，降低受到的伤害</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰减伤</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒性减伤</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼易伤</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>僵尸易伤</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>虫易伤</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>对鬼怪类敌人的发起攻击时，提高造成的伤害</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>对僵尸类敌人的发起攻击时，提高造成的伤害</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>对虫类敌人的发起攻击时，提高造成的伤害</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>%</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>弩武器专精</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓武器专精</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>伞武器专精</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>长柄武器专精</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用弩作为武器的英雄伤害提高</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用弓作为武器的英雄伤害提高</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用长柄作为武器的英雄伤害提高</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用伞作为武器的英雄伤害提高</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用枪作为武器的英雄伤害提高</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪武器专精</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>拳套专精</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用拳套为武器的英雄最大生命值提高</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>盾牌专精</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用枪作为武器的英雄防御提高</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业专精1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业专精2</t>
+  </si>
+  <si>
+    <t>职业专精3</t>
+  </si>
+  <si>
+    <t>职业专精4</t>
+  </si>
+  <si>
+    <t>职业专精5</t>
+  </si>
+  <si>
+    <t>职业专精6</t>
+  </si>
+  <si>
+    <t>职业1的伤害/防御/生命提高</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业2的伤害/防御/生命提高</t>
+  </si>
+  <si>
+    <t>职业3的伤害/防御/生命提高</t>
+  </si>
+  <si>
+    <t>职业4的伤害/防御/生命提高</t>
+  </si>
+  <si>
+    <t>职业5的伤害/防御/生命提高</t>
+  </si>
+  <si>
+    <t>职业6的伤害/防御/生命提高</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2211,6 +2330,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2234,7 +2360,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2276,6 +2402,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2584,7 +2716,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomRight" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2597,7 +2729,7 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2611,7 +2743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2625,7 +2757,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2642,455 +2774,579 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>22</v>
+      <c r="B9" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>28</v>
+      <c r="B11" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>30</v>
+      <c r="B12" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>32</v>
+      <c r="B13" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>34</v>
+      <c r="B14" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>36</v>
+      <c r="B15" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>11</v>
+      </c>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>38</v>
+      <c r="B16" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>78</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>40</v>
+      <c r="B17" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>41</v>
+        <v>79</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>42</v>
+      <c r="B18" s="10" t="s">
+        <v>85</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>43</v>
+        <v>79</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="E25" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="E26" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="1">
-        <v>22</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" s="11"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="1">
-        <v>23</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="1">
-        <v>24</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="1">
-        <v>51</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="8" t="s">
+      <c r="B29" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D24" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="1">
-        <v>52</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="8" t="s">
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D25" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="1">
-        <v>53</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="8" t="s">
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D26" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="1">
-        <v>99</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="C28" s="8"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="C30" s="8"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="C31" s="8"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="C32" s="8"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="C33" s="8"/>
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="C34" s="8"/>
+      <c r="B34" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="C35" s="8"/>
+      <c r="B35" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="C36" s="8"/>
+      <c r="B36" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="B37" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
+      <c r="B38" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" s="15"/>
+      <c r="D38" s="14" t="s">
+        <v>129</v>
+      </c>
       <c r="E38" s="10"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
+      <c r="B39" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" s="15"/>
+      <c r="D39" s="14" t="s">
+        <v>130</v>
+      </c>
       <c r="E39" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3131,11 +3387,11 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="13" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="12" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -3247,155 +3503,155 @@
     </row>
     <row r="10" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="26.1" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="33" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="33" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="33" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="45" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="35.1" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="63.95" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="54" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="54" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="54" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="27" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="33" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24.95" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="36" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="C24" s="2"/>
     </row>

--- a/design/数值文档/战斗数值/属性类型和计算公式_彭雪锋.xlsx
+++ b/design/数值文档/战斗数值/属性类型和计算公式_彭雪锋.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="133">
   <si>
     <t>属性名称</t>
   </si>
@@ -2206,10 +2206,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>使用枪作为武器的英雄防御提高</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>职业专精1</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -2246,6 +2242,18 @@
   </si>
   <si>
     <t>职业6的伤害/防御/生命提高</t>
+  </si>
+  <si>
+    <t>暗器专精</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用盾牌作为武器的英雄防御提高</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用暗器作为武器的英雄防御提高</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2397,17 +2405,17 @@
     <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2710,13 +2718,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D32" sqref="D32"/>
+      <selection pane="bottomRight" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3279,69 +3287,91 @@
         <v>86</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="B34" s="14" t="s">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="C35" s="8"/>
+      <c r="D35" s="10"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="C36" s="8"/>
+      <c r="D36" s="10"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="B37" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="B38" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14" t="s">
+      <c r="C38" s="12"/>
+      <c r="D38" s="12" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
-      <c r="B35" s="14" t="s">
+    <row r="39" spans="1:5">
+      <c r="B39" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14" t="s">
+      <c r="C39" s="12"/>
+      <c r="D39" s="12" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="B36" s="14" t="s">
+    <row r="40" spans="1:5">
+      <c r="B40" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14" t="s">
+      <c r="C40" s="12"/>
+      <c r="D40" s="12" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
-      <c r="B37" s="14" t="s">
+    <row r="41" spans="1:5">
+      <c r="A41" s="10"/>
+      <c r="B41" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14" t="s">
+      <c r="C41" s="13"/>
+      <c r="D41" s="12" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="10"/>
-      <c r="B38" s="14" t="s">
+      <c r="E41" s="10"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="10"/>
+      <c r="B42" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="14" t="s">
+      <c r="C42" s="13"/>
+      <c r="D42" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="E38" s="10"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="10"/>
-      <c r="B39" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="E39" s="10"/>
+      <c r="E42" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -3386,11 +3416,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="14" t="s">
         <v>37</v>
       </c>
       <c r="D1" s="3"/>
@@ -3404,9 +3434,9 @@
       <c r="L1" s="3"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="12"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="14"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -3418,9 +3448,9 @@
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="12"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="14"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -3432,9 +3462,9 @@
       <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="12"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -3446,9 +3476,9 @@
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="12"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="14"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -3460,9 +3490,9 @@
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="12"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -3474,9 +3504,9 @@
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="12"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -3488,9 +3518,9 @@
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:12" ht="45" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="12"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
